--- a/biology/Botanique/Ptéris_de_Crète/Ptéris_de_Crète.xlsx
+++ b/biology/Botanique/Ptéris_de_Crète/Ptéris_de_Crète.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pt%C3%A9ris_de_Cr%C3%A8te</t>
+          <t>Ptéris_de_Crète</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pteris cretica
 Le Ptéris de Crète (Pteris cretica) est une fougère de la famille des Pteridaceae et parfois classée parmi la famille des Adiantaceae selon les auteurs.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pt%C3%A9ris_de_Cr%C3%A8te</t>
+          <t>Ptéris_de_Crète</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>frondes divisées en 2 à 7 segments linéaires lancéolés, certaines stériles et d'autres fertiles, les sores étant le long des bords enroulés de celles-ci.
 Période de sporulation : estivale
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pt%C3%A9ris_de_Cr%C3%A8te</t>
+          <t>Ptéris_de_Crète</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Milieu de vie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Ptéris de Crète est une fougère des forêts tropicales et subtropicales, rare en France elle n'est présente que dans les Alpes maritimes et en Corse dans des milieux humides et ombragés. En raison de son origine, cette plante apprécie la chaleur et l'humidité ; elle s'apprivoise parfaitement en plante d'intérieur dans les salles de bains[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Ptéris de Crète est une fougère des forêts tropicales et subtropicales, rare en France elle n'est présente que dans les Alpes maritimes et en Corse dans des milieux humides et ombragés. En raison de son origine, cette plante apprécie la chaleur et l'humidité ; elle s'apprivoise parfaitement en plante d'intérieur dans les salles de bains.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pt%C3%A9ris_de_Cr%C3%A8te</t>
+          <t>Ptéris_de_Crète</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas d'utilisation connue.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pt%C3%A9ris_de_Cr%C3%A8te</t>
+          <t>Ptéris_de_Crète</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,6 +625,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
